--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.181445333333333</v>
+        <v>1.721958666666667</v>
       </c>
       <c r="H2">
-        <v>6.544335999999999</v>
+        <v>5.165876000000001</v>
       </c>
       <c r="I2">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239836</v>
       </c>
       <c r="J2">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>203.0691603333333</v>
+        <v>154.942487</v>
       </c>
       <c r="N2">
-        <v>609.207481</v>
+        <v>464.827461</v>
       </c>
       <c r="O2">
-        <v>0.9796789863919257</v>
+        <v>0.982851703624775</v>
       </c>
       <c r="P2">
-        <v>0.9796789863919257</v>
+        <v>0.9828517036247751</v>
       </c>
       <c r="Q2">
-        <v>442.9842721530684</v>
+        <v>266.8045583245374</v>
       </c>
       <c r="R2">
-        <v>3986.858449377616</v>
+        <v>2401.241024920836</v>
       </c>
       <c r="S2">
-        <v>0.103732647573727</v>
+        <v>0.07656401919703844</v>
       </c>
       <c r="T2">
-        <v>0.103732647573727</v>
+        <v>0.07656401919703844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.181445333333333</v>
+        <v>1.721958666666667</v>
       </c>
       <c r="H3">
-        <v>6.544335999999999</v>
+        <v>5.165876000000001</v>
       </c>
       <c r="I3">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239836</v>
       </c>
       <c r="J3">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.588474</v>
       </c>
       <c r="O3">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="P3">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="Q3">
-        <v>1.155056398140444</v>
+        <v>0.9117621903582223</v>
       </c>
       <c r="R3">
-        <v>10.395507583264</v>
+        <v>8.205859713224001</v>
       </c>
       <c r="S3">
-        <v>0.0002704770029277242</v>
+        <v>0.0002616453717436381</v>
       </c>
       <c r="T3">
-        <v>0.0002704770029277242</v>
+        <v>0.0002616453717436381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.181445333333333</v>
+        <v>1.721958666666667</v>
       </c>
       <c r="H4">
-        <v>6.544335999999999</v>
+        <v>5.165876000000001</v>
       </c>
       <c r="I4">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239836</v>
       </c>
       <c r="J4">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.500179</v>
+        <v>1.771368666666667</v>
       </c>
       <c r="N4">
-        <v>10.500537</v>
+        <v>5.314106000000001</v>
       </c>
       <c r="O4">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078883</v>
       </c>
       <c r="P4">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078884</v>
       </c>
       <c r="Q4">
-        <v>7.635449145381331</v>
+        <v>3.050223627428445</v>
       </c>
       <c r="R4">
-        <v>68.71904230843199</v>
+        <v>27.45201264685601</v>
       </c>
       <c r="S4">
-        <v>0.001787976244428096</v>
+        <v>0.0008753125577473084</v>
       </c>
       <c r="T4">
-        <v>0.001787976244428096</v>
+        <v>0.0008753125577473082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.181445333333333</v>
+        <v>1.721958666666667</v>
       </c>
       <c r="H5">
-        <v>6.544335999999999</v>
+        <v>5.165876000000001</v>
       </c>
       <c r="I5">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239836</v>
       </c>
       <c r="J5">
-        <v>0.1058843243701343</v>
+        <v>0.07789986924239835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1824963333333333</v>
+        <v>0.4024976666666666</v>
       </c>
       <c r="N5">
-        <v>0.547489</v>
+        <v>1.207493</v>
       </c>
       <c r="O5">
-        <v>0.0008804282371915408</v>
+        <v>0.002553176504700935</v>
       </c>
       <c r="P5">
-        <v>0.0008804282371915407</v>
+        <v>0.002553176504700936</v>
       </c>
       <c r="Q5">
-        <v>0.3981057747004444</v>
+        <v>0.6930843454297778</v>
       </c>
       <c r="R5">
-        <v>3.582951972304</v>
+        <v>6.237759108868</v>
       </c>
       <c r="S5">
-        <v>9.322354905141462E-05</v>
+        <v>0.0001988921158689666</v>
       </c>
       <c r="T5">
-        <v>9.32235490514146E-05</v>
+        <v>0.0001988921158689666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>26.381805</v>
       </c>
       <c r="I6">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389287</v>
       </c>
       <c r="J6">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389286</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>203.0691603333333</v>
+        <v>154.942487</v>
       </c>
       <c r="N6">
-        <v>609.207481</v>
+        <v>464.827461</v>
       </c>
       <c r="O6">
-        <v>0.9796789863919257</v>
+        <v>0.982851703624775</v>
       </c>
       <c r="P6">
-        <v>0.9796789863919257</v>
+        <v>0.9828517036247751</v>
       </c>
       <c r="Q6">
-        <v>1785.776996475912</v>
+        <v>1362.554159416345</v>
       </c>
       <c r="R6">
-        <v>16071.99296828321</v>
+        <v>12262.9874347471</v>
       </c>
       <c r="S6">
-        <v>0.4181714509193583</v>
+        <v>0.3910076479715201</v>
       </c>
       <c r="T6">
-        <v>0.4181714509193583</v>
+        <v>0.3910076479715201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>26.381805</v>
       </c>
       <c r="I7">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389287</v>
       </c>
       <c r="J7">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389286</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.588474</v>
       </c>
       <c r="O7">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="P7">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="Q7">
         <v>4.656312368396666</v>
@@ -883,10 +883,10 @@
         <v>41.90681131557</v>
       </c>
       <c r="S7">
-        <v>0.001090358372220444</v>
+        <v>0.001336206516860484</v>
       </c>
       <c r="T7">
-        <v>0.001090358372220444</v>
+        <v>0.001336206516860484</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>26.381805</v>
       </c>
       <c r="I8">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389287</v>
       </c>
       <c r="J8">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389286</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.500179</v>
+        <v>1.771368666666667</v>
       </c>
       <c r="N8">
-        <v>10.500537</v>
+        <v>5.314106000000001</v>
       </c>
       <c r="O8">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078883</v>
       </c>
       <c r="P8">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078884</v>
       </c>
       <c r="Q8">
-        <v>30.78034661436499</v>
+        <v>15.57730091570333</v>
       </c>
       <c r="R8">
-        <v>277.023119529285</v>
+        <v>140.19570824133</v>
       </c>
       <c r="S8">
-        <v>0.007207765711469333</v>
+        <v>0.004470166378856311</v>
       </c>
       <c r="T8">
-        <v>0.007207765711469333</v>
+        <v>0.004470166378856311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>26.381805</v>
       </c>
       <c r="I9">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389287</v>
       </c>
       <c r="J9">
-        <v>0.4268453817300381</v>
+        <v>0.3978297504389286</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1824963333333333</v>
+        <v>0.4024976666666666</v>
       </c>
       <c r="N9">
-        <v>0.547489</v>
+        <v>1.207493</v>
       </c>
       <c r="O9">
-        <v>0.0008804282371915408</v>
+        <v>0.002553176504700935</v>
       </c>
       <c r="P9">
-        <v>0.0008804282371915407</v>
+        <v>0.002553176504700936</v>
       </c>
       <c r="Q9">
-        <v>1.604860893071667</v>
+        <v>3.539538318318333</v>
       </c>
       <c r="R9">
-        <v>14.443748037645</v>
+        <v>31.855844864865</v>
       </c>
       <c r="S9">
-        <v>0.0003758067269899277</v>
+        <v>0.001015729571691709</v>
       </c>
       <c r="T9">
-        <v>0.0003758067269899276</v>
+        <v>0.001015729571691709</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.428052</v>
+        <v>5.953778333333333</v>
       </c>
       <c r="H10">
-        <v>10.284156</v>
+        <v>17.861335</v>
       </c>
       <c r="I10">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="J10">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>203.0691603333333</v>
+        <v>154.942487</v>
       </c>
       <c r="N10">
-        <v>609.207481</v>
+        <v>464.827461</v>
       </c>
       <c r="O10">
-        <v>0.9796789863919257</v>
+        <v>0.982851703624775</v>
       </c>
       <c r="P10">
-        <v>0.9796789863919257</v>
+        <v>0.9828517036247751</v>
       </c>
       <c r="Q10">
-        <v>696.131641219004</v>
+        <v>922.4932220133817</v>
       </c>
       <c r="R10">
-        <v>6265.184770971036</v>
+        <v>8302.438998120435</v>
       </c>
       <c r="S10">
-        <v>0.1630116072801321</v>
+        <v>0.2647248203063206</v>
       </c>
       <c r="T10">
-        <v>0.1630116072801321</v>
+        <v>0.2647248203063207</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.428052</v>
+        <v>5.953778333333333</v>
       </c>
       <c r="H11">
-        <v>10.284156</v>
+        <v>17.861335</v>
       </c>
       <c r="I11">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="J11">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.588474</v>
       </c>
       <c r="O11">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="P11">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="Q11">
-        <v>1.815123824216</v>
+        <v>3.152474028087778</v>
       </c>
       <c r="R11">
-        <v>16.336114417944</v>
+        <v>28.37226625279</v>
       </c>
       <c r="S11">
-        <v>0.0004250435326855424</v>
+        <v>0.0009046550160926537</v>
       </c>
       <c r="T11">
-        <v>0.0004250435326855424</v>
+        <v>0.0009046550160926537</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.428052</v>
+        <v>5.953778333333333</v>
       </c>
       <c r="H12">
-        <v>10.284156</v>
+        <v>17.861335</v>
       </c>
       <c r="I12">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="J12">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.500179</v>
+        <v>1.771368666666667</v>
       </c>
       <c r="N12">
-        <v>10.500537</v>
+        <v>5.314106000000001</v>
       </c>
       <c r="O12">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078883</v>
       </c>
       <c r="P12">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078884</v>
       </c>
       <c r="Q12">
-        <v>11.998795621308</v>
+        <v>10.54633638794556</v>
       </c>
       <c r="R12">
-        <v>107.989160591772</v>
+        <v>94.91702749151001</v>
       </c>
       <c r="S12">
-        <v>0.002809731441355192</v>
+        <v>0.003026447174425309</v>
       </c>
       <c r="T12">
-        <v>0.002809731441355192</v>
+        <v>0.003026447174425309</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.428052</v>
+        <v>5.953778333333333</v>
       </c>
       <c r="H13">
-        <v>10.284156</v>
+        <v>17.861335</v>
       </c>
       <c r="I13">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="J13">
-        <v>0.1663928792435264</v>
+        <v>0.269343604258924</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1824963333333333</v>
+        <v>0.4024976666666666</v>
       </c>
       <c r="N13">
-        <v>0.547489</v>
+        <v>1.207493</v>
       </c>
       <c r="O13">
-        <v>0.0008804282371915408</v>
+        <v>0.002553176504700935</v>
       </c>
       <c r="P13">
-        <v>0.0008804282371915407</v>
+        <v>0.002553176504700936</v>
       </c>
       <c r="Q13">
-        <v>0.625606920476</v>
+        <v>2.396381887017222</v>
       </c>
       <c r="R13">
-        <v>5.630462284284</v>
+        <v>21.567436983155</v>
       </c>
       <c r="S13">
-        <v>0.0001464969893536029</v>
+        <v>0.0006876817620853514</v>
       </c>
       <c r="T13">
-        <v>0.0001464969893536029</v>
+        <v>0.0006876817620853515</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.198723333333334</v>
+        <v>5.635097666666667</v>
       </c>
       <c r="H14">
-        <v>18.59617</v>
+        <v>16.905293</v>
       </c>
       <c r="I14">
-        <v>0.3008774146563013</v>
+        <v>0.2549267760597491</v>
       </c>
       <c r="J14">
-        <v>0.3008774146563013</v>
+        <v>0.254926776059749</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>203.0691603333333</v>
+        <v>154.942487</v>
       </c>
       <c r="N14">
-        <v>609.207481</v>
+        <v>464.827461</v>
       </c>
       <c r="O14">
-        <v>0.9796789863919257</v>
+        <v>0.982851703624775</v>
       </c>
       <c r="P14">
-        <v>0.9796789863919257</v>
+        <v>0.9828517036247751</v>
       </c>
       <c r="Q14">
-        <v>1258.769542438641</v>
+        <v>873.1160469612304</v>
       </c>
       <c r="R14">
-        <v>11328.92588194777</v>
+        <v>7858.044422651073</v>
       </c>
       <c r="S14">
-        <v>0.2947632806187084</v>
+        <v>0.2505552161498959</v>
       </c>
       <c r="T14">
-        <v>0.2947632806187084</v>
+        <v>0.2505552161498958</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.198723333333334</v>
+        <v>5.635097666666667</v>
       </c>
       <c r="H15">
-        <v>18.59617</v>
+        <v>16.905293</v>
       </c>
       <c r="I15">
-        <v>0.3008774146563013</v>
+        <v>0.2549267760597491</v>
       </c>
       <c r="J15">
-        <v>0.3008774146563013</v>
+        <v>0.254926776059749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.588474</v>
       </c>
       <c r="O15">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="P15">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="Q15">
-        <v>3.282170282731111</v>
+        <v>2.983735376986889</v>
       </c>
       <c r="R15">
-        <v>29.53953254458</v>
+        <v>26.853618392882</v>
       </c>
       <c r="S15">
-        <v>0.000768578558242495</v>
+        <v>0.0008562326450383483</v>
       </c>
       <c r="T15">
-        <v>0.000768578558242495</v>
+        <v>0.0008562326450383482</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.198723333333334</v>
+        <v>5.635097666666667</v>
       </c>
       <c r="H16">
-        <v>18.59617</v>
+        <v>16.905293</v>
       </c>
       <c r="I16">
-        <v>0.3008774146563013</v>
+        <v>0.2549267760597491</v>
       </c>
       <c r="J16">
-        <v>0.3008774146563013</v>
+        <v>0.254926776059749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.500179</v>
+        <v>1.771368666666667</v>
       </c>
       <c r="N16">
-        <v>10.500537</v>
+        <v>5.314106000000001</v>
       </c>
       <c r="O16">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078883</v>
       </c>
       <c r="P16">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078884</v>
       </c>
       <c r="Q16">
-        <v>21.69664123814333</v>
+        <v>9.981835440339779</v>
       </c>
       <c r="R16">
-        <v>195.26977114329</v>
+        <v>89.83651896305801</v>
       </c>
       <c r="S16">
-        <v>0.005080654507553774</v>
+        <v>0.002864454209759906</v>
       </c>
       <c r="T16">
-        <v>0.005080654507553774</v>
+        <v>0.002864454209759906</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.198723333333334</v>
+        <v>5.635097666666667</v>
       </c>
       <c r="H17">
-        <v>18.59617</v>
+        <v>16.905293</v>
       </c>
       <c r="I17">
-        <v>0.3008774146563013</v>
+        <v>0.2549267760597491</v>
       </c>
       <c r="J17">
-        <v>0.3008774146563013</v>
+        <v>0.254926776059749</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1824963333333333</v>
+        <v>0.4024976666666666</v>
       </c>
       <c r="N17">
-        <v>0.547489</v>
+        <v>1.207493</v>
       </c>
       <c r="O17">
-        <v>0.0008804282371915408</v>
+        <v>0.002553176504700935</v>
       </c>
       <c r="P17">
-        <v>0.0008804282371915407</v>
+        <v>0.002553176504700936</v>
       </c>
       <c r="Q17">
-        <v>1.131244279681111</v>
+        <v>2.268113662272111</v>
       </c>
       <c r="R17">
-        <v>10.18119851713</v>
+        <v>20.413022960449</v>
       </c>
       <c r="S17">
-        <v>0.0002649009717965956</v>
+        <v>0.0006508730550549082</v>
       </c>
       <c r="T17">
-        <v>0.0002649009717965955</v>
+        <v>0.0006508730550549082</v>
       </c>
     </row>
   </sheetData>
